--- a/eg_data/NHANES/PF/n1776/n1776_Div_ANOVA.xlsx
+++ b/eg_data/NHANES/PF/n1776/n1776_Div_ANOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\n1776\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9961670-243E-4CE3-9813-D9BA8B6E157D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB28B85-1378-4EC5-BA92-2F2F070B3FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37230" yWindow="-3015" windowWidth="11805" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27300" yWindow="-2010" windowWidth="14685" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="159">
   <si>
     <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
   </si>
@@ -189,45 +189,6 @@
     <t xml:space="preserve">Anova p = 3.04e-11 </t>
   </si>
   <si>
-    <t xml:space="preserve">data:  df$BMXBMI and df$DivGroup </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Div0    Div1  Div2   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Div1  0.057   -     -      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Div2  1.6e-06 0.028 -      </t>
-  </si>
-  <si>
-    <t>DivNA 0.810   0.038 3.8e-07</t>
-  </si>
-  <si>
-    <t>P value adjustment method: fdr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 diff         lwr      upr     p adj</t>
-  </si>
-  <si>
-    <t>Div0-DivNA -0.5557899 -2.88002591 1.768446 0.9273596</t>
-  </si>
-  <si>
-    <t>Div1-DivNA  0.8625829 -2.74441237 4.469578 0.9273483</t>
-  </si>
-  <si>
-    <t>Div2-DivNA  3.7318315  0.01227295 7.451390 0.0488877</t>
-  </si>
-  <si>
-    <t>Div1-Div0   1.4183728 -2.35604528 5.192791 0.7686425</t>
-  </si>
-  <si>
-    <t>Div2-Div0   4.2876213  0.40549147 8.169751 0.0235980</t>
-  </si>
-  <si>
-    <t>Div2-Div1   2.8692486 -1.89302754 7.631525 0.4082392</t>
-  </si>
-  <si>
     <t>Or Base R TukeyHSD function.'</t>
   </si>
   <si>
@@ -256,6 +217,363 @@
   </si>
   <si>
     <t>BMXBMI n=1790 only rows with complete data in HDL etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Df Sum Sq Mean Sq F value Pr(&gt;F)  </t>
+  </si>
+  <si>
+    <t>DivGroup       3   2386   795.4   2.804 0.0385 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 502650   283.7                 </t>
+  </si>
+  <si>
+    <t>DivGroup       3   0.73 0.24330   2.724 0.0429 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 158.29 0.08933                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest LBDHDD_log       std   r      Min      Max      Q25      Q50      Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0   3.962897 0.2937243 563 3.091042 4.787492 3.761200 3.970292 4.158883      b</t>
+  </si>
+  <si>
+    <t>2          Div1   4.000859 0.2586069 169 3.258097 4.564348 3.806662 3.988984 4.189655     ab</t>
+  </si>
+  <si>
+    <t>3          Div2   4.033090 0.3165023 158 2.833213 4.820282 3.850148 4.025352 4.273170      a</t>
+  </si>
+  <si>
+    <t>4         DivNA   3.971723 0.3059553 886 1.791759 4.859812 3.761200 3.970292 4.174387     ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Df  Sum Sq Mean Sq F value Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>DivGroup       3    5119    1706   0.424  0.736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 7134814    4026   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest    LBXTR      std   r Min Max Q25 Q50    Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0 106.7851 63.65587 563  21 372  62  89 135.50      a</t>
+  </si>
+  <si>
+    <t>2          Div1 107.0592 63.40185 169  31 351  63  89 137.00      a</t>
+  </si>
+  <si>
+    <t>3          Div2 100.6899 57.26894 158  18 307  56  93 136.75      a</t>
+  </si>
+  <si>
+    <t>4         DivNA 106.3928 64.37274 886  15 397  60  90 135.75      a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Df Sum Sq Mean Sq F value Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>DivGroup       3    0.6  0.2032    0.63  0.596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772  571.8  0.3227           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest LBXTR_log       std   r      Min      Max      Q25      Q50      Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0  4.513683 0.5595078 563 3.044522 5.918894 4.127134 4.488636 4.908965      a</t>
+  </si>
+  <si>
+    <t>2          Div1  4.522701 0.5428103 169 3.433987 5.860786 4.143135 4.488636 4.919981      a</t>
+  </si>
+  <si>
+    <t>3          Div2  4.447872 0.5911512 158 2.890372 5.726848 4.025352 4.532599 4.918149      a</t>
+  </si>
+  <si>
+    <t>4         DivNA  4.503374 0.5739209 886 2.708050 5.983936 4.094345 4.499810 4.910810      a</t>
+  </si>
+  <si>
+    <t>DivGroup       3    5105    1702   1.328  0.263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 2269609    1281           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest   LBDLDL      std   r Min Max   Q25 Q50 Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0 114.0675 34.43265 563  24 239 90.00 112 137      a</t>
+  </si>
+  <si>
+    <t>2          Div1 109.7278 33.80331 169  37 257 88.00 109 131      a</t>
+  </si>
+  <si>
+    <t>3          Div2 111.0759 34.95831 158  24 222 82.75 110 134      a</t>
+  </si>
+  <si>
+    <t>4         DivNA 110.5158 37.12041 886  29 277 84.00 107 132      a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest LBDLDL_log       std   r      Min      Max      Q25      Q50      Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0   4.688788 0.3184228 563 3.178054 5.476464 4.499810 4.718499 4.919981      a</t>
+  </si>
+  <si>
+    <t>2          Div1   4.649606 0.3185041 169 3.610918 5.549076 4.477337 4.691348 4.875197      a</t>
+  </si>
+  <si>
+    <t>3          Div2   4.657783 0.3351500 158 3.178054 5.402677 4.415702 4.700480 4.897840      a</t>
+  </si>
+  <si>
+    <t>4         DivNA   4.647288 0.3487420 886 3.367296 5.624018 4.430817 4.672829 4.882802      a</t>
+  </si>
+  <si>
+    <t>DivGroup       3   0.62  0.2081    1.85  0.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 199.30  0.1125    </t>
+  </si>
+  <si>
+    <t>1          Div0 190.3641 40.64503 563  85 349 162 189 214.00      a</t>
+  </si>
+  <si>
+    <t>2          Div1 187.6331 39.07710 169 103 345 157 190 214.00      a</t>
+  </si>
+  <si>
+    <t>3          Div2 190.3797 40.64098 158 102 300 160 182 215.75      a</t>
+  </si>
+  <si>
+    <t>4         DivNA 187.3713 42.35768 886  84 359 158 182 211.00      a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest    LBXTC      std   r Min Max Q25 Q50    Q75 groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest     KCAL      std   r   Min    Max      Q25     Q50      Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0 1957.649 671.9368 563 604.5 5136.0 1507.000 1887.00 2324.250      b</t>
+  </si>
+  <si>
+    <t>2          Div1 2143.104 663.7986 169 988.0 4776.5 1698.500 2064.50 2585.000      a</t>
+  </si>
+  <si>
+    <t>3          Div2 2290.519 734.1098 158 921.0 4724.0 1803.000 2229.25 2722.250      a</t>
+  </si>
+  <si>
+    <t>4         DivNA 1936.073 714.8534 886 604.0 4812.0 1405.125 1838.00 2383.375      b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Df    Sum Sq Mean Sq F value   Pr(&gt;F)    </t>
+  </si>
+  <si>
+    <t>DivGroup       3  21366026 7122009    14.6 2.16e-09 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 864626625  487938  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest KCAL_log       std   r      Min      Max      Q25      Q50      Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0 7.520212 0.3506084 563 6.404402 8.544030 7.317876 7.542744 7.751152      b</t>
+  </si>
+  <si>
+    <t>2          Div1 7.623406 0.3073912 169 6.895683 8.471463 7.437501 7.632643 7.857481      a</t>
+  </si>
+  <si>
+    <t>3          Div2 7.685313 0.3258298 158 6.825460 8.460411 7.497205 7.709409 7.909206      a</t>
+  </si>
+  <si>
+    <t>4         DivNA 7.500313 0.3742170 886 6.403574 8.478868 7.247881 7.516433 7.776272      b</t>
+  </si>
+  <si>
+    <t>KCAL log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Df Sum Sq Mean Sq F value   Pr(&gt;F)    </t>
+  </si>
+  <si>
+    <t>DivGroup       3   6.08  2.0266   15.92 3.24e-10 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 225.56  0.1273   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest   BMXBMI      std   r  Min  Max    Q25  Q50    Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0 29.93091 7.005212 563 16.2 64.5 25.050 28.7 34.000      a</t>
+  </si>
+  <si>
+    <t>2          Div1 28.86509 6.379601 169 17.9 52.8 24.000 27.8 32.500      a</t>
+  </si>
+  <si>
+    <t>3          Div2 28.29620 6.979249 158 17.0 56.6 22.825 27.5 31.975      a</t>
+  </si>
+  <si>
+    <t>4         DivNA 29.73239 7.272278 886 16.0 63.6 24.600 28.8 33.500      a</t>
+  </si>
+  <si>
+    <t>DivGroup       3    437  145.55   2.902 0.0337 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772  88868   50.15                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest BMXBMI_log       std   r      Min      Max      Q25      Q50      Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0   3.373137 0.2252143 563 2.785011 4.166665 3.220872 3.356897 3.526361      a</t>
+  </si>
+  <si>
+    <t>2          Div1   3.339929 0.2110974 169 2.884801 3.966511 3.178054 3.325036 3.481240     ab</t>
+  </si>
+  <si>
+    <t>3          Div2   3.314537 0.2355866 158 2.833213 4.036009 3.127855 3.314186 3.464953      b</t>
+  </si>
+  <si>
+    <t>4         DivNA   3.364618 0.2322164 886 2.772589 4.152613 3.202746 3.360375 3.511545     ab</t>
+  </si>
+  <si>
+    <t>DivGroup       3   0.51 0.17008   3.261 0.0207 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772  92.43 0.05216              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VarOfInterest   LBDHDD      std   r Min Max Q25 Q50   Q75 groups</t>
+  </si>
+  <si>
+    <t>1          Div0 54.93250 16.52677 563  22 120  43  53 64.00      b</t>
+  </si>
+  <si>
+    <t>2          Div1 56.47337 14.52095 169  26  96  45  54 66.00     ab</t>
+  </si>
+  <si>
+    <t>3          Div2 59.21519 18.27509 158  17 124  47  56 71.75      a</t>
+  </si>
+  <si>
+    <t>4         DivNA 55.57788 17.18264 886   6 129  43  53 65.00     ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     DivNA  Div0   Div1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div0 0.4772 -      -     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div1 0.5265 0.2971 -     </t>
+  </si>
+  <si>
+    <r>
+      <t>Div2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0125 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0048 0.1414</t>
+    </r>
+  </si>
+  <si>
+    <t>pairwise t-test p.adj="none"</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Div2 - DivNA</t>
+  </si>
+  <si>
+    <t>DivGroup       3    3748    1249    0.73  0.534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals   1772 3032132    1711  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     DivNA Div0  Div1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div0 0.603 -     -    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div1 0.145 0.086 -    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Div2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0.010 0.468</t>
+    </r>
+  </si>
+  <si>
+    <t>Means Tukey HSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     DivNA   Div0    Div1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div0 0.56665 -       -      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div1 0.00042 0.00251 -      </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Div2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5.0e-09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1.4e-07 0.05668</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -303,12 +621,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -338,8 +650,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +724,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F577"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -434,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -449,7 +779,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -459,15 +788,15 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -479,17 +808,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2F577"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -502,6 +839,160 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F54942-0DD2-48DB-D98F-AFA0F62D3297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106524" y="542925"/>
+          <a:ext cx="1819275" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Div2 and DivNA are not different according to Tukey</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>HSD.. but Div2 and Div0 are different. interesting.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FC209C-2830-421D-B86A-7233AB253794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14258925" y="9906000"/>
+          <a:ext cx="1819275" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Div2 and DivNA are not different according to Tukey</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>HSD (all a).</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -571,81 +1062,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> DivNA has lower HDD and as nuts/seeds/legumes diversity goes up, the higher HDD.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB99782-CA67-1B09-5093-B11A3C5408F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942975" y="21278850"/>
-          <a:ext cx="3009900" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ANOVA,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> means double-checked. 02/10/2023.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -919,357 +1335,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="63.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <v>3.6373117695802009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="B12" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="B48" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="D49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="D50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="D51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="D52" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="B54" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55">
+        <v>-1.4361902448780981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="B61" s="29" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
+      <c r="A62" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
+      <c r="A64" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <v>354.4461882446999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="29"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="C78" s="29"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="29"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="33"/>
+      <c r="B83" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
+      <c r="A97" s="33"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="33"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="33"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1277,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E60FD-1B4E-4007-860A-9E90B8CF5750}">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,40 +2028,40 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="L2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1367,9 +2096,7 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
+      <c r="L5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1402,9 +2129,7 @@
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1437,9 +2162,7 @@
       <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1472,9 +2195,7 @@
       <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="24" t="s">
-        <v>59</v>
-      </c>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1507,9 +2228,7 @@
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10"/>
@@ -1523,18 +2242,14 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="L10" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="L11" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1706,7 +2421,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1750,15 +2465,15 @@
         <f>A14</f>
         <v>Div0</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>EXP(B14)</f>
         <v>52.609506453355444</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f t="shared" ref="C21" si="0">EXP(C14)</f>
         <v>1.3414140164862931</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f>D14</f>
         <v>563</v>
       </c>
@@ -1792,15 +2507,15 @@
         <f t="shared" ref="A22:A24" si="2">A15</f>
         <v>Div1</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <f>EXP(B15)</f>
         <v>54.5351335440429</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <f t="shared" ref="C22" si="3">EXP(C15)</f>
         <v>1.2940165848264609</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f t="shared" ref="D22:D24" si="4">D15</f>
         <v>171</v>
       </c>
@@ -1834,15 +2549,15 @@
         <f t="shared" si="2"/>
         <v>Div2</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <f t="shared" ref="B23:C23" si="7">EXP(B16)</f>
         <v>56.456779647384543</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <f t="shared" si="7"/>
         <v>1.3709946364265893</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
@@ -1876,15 +2591,15 @@
         <f t="shared" si="2"/>
         <v>DivNA</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <f t="shared" ref="B24:C24" si="9">EXP(B17)</f>
         <v>52.997183434521034</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <f t="shared" si="9"/>
         <v>1.3572440001266628</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <f t="shared" si="4"/>
         <v>897</v>
       </c>
@@ -1925,7 +2640,7 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="5"/>
@@ -1944,7 +2659,7 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
@@ -1976,7 +2691,7 @@
       <c r="B28" s="9">
         <v>53.646153846153801</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>17.0922364121224</v>
       </c>
       <c r="D28">
@@ -2008,7 +2723,7 @@
       <c r="B29" s="9">
         <v>55.479695431472102</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>16.139053637816101</v>
       </c>
       <c r="D29">
@@ -2040,7 +2755,7 @@
       <c r="B30" s="9">
         <v>57.387755102040799</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>17.655633214525501</v>
       </c>
       <c r="D30">
@@ -2072,7 +2787,7 @@
       <c r="B31" s="9">
         <v>53.7682317682318</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>17.428578602232101</v>
       </c>
       <c r="D31">
@@ -2109,7 +2824,7 @@
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2277,7 +2992,7 @@
       <c r="A39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -2325,7 +3040,7 @@
         <f>EXP(B35)</f>
         <v>90.429257834352356</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <f t="shared" ref="C42" si="11">EXP(C35)</f>
         <v>1.7750758623699452</v>
       </c>
@@ -2367,7 +3082,7 @@
         <f t="shared" ref="B43:C43" si="14">EXP(B36)</f>
         <v>91.257266114232365</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="19">
         <f t="shared" si="14"/>
         <v>1.7498110656502175</v>
       </c>
@@ -2409,7 +3124,7 @@
         <f t="shared" ref="B44:C44" si="18">EXP(B37)</f>
         <v>93.041293817344666</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="19">
         <f t="shared" si="18"/>
         <v>1.7302395397594965</v>
       </c>
@@ -2451,7 +3166,7 @@
         <f t="shared" ref="B45:C45" si="20">EXP(B38)</f>
         <v>85.168024407532243</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <f t="shared" si="20"/>
         <v>1.8052460463187641</v>
       </c>
@@ -2874,15 +3589,15 @@
         <f>A57</f>
         <v>Div0</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <f>EXP(B57)</f>
         <v>108.7212845209463</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="19">
         <f t="shared" ref="C64" si="22">EXP(C57)</f>
         <v>1.3749574756613019</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f>D57</f>
         <v>563</v>
       </c>
@@ -2916,15 +3631,15 @@
         <f t="shared" ref="A65:A67" si="24">A58</f>
         <v>Div1</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <f t="shared" ref="B65:C65" si="25">EXP(B58)</f>
         <v>104.7810387917375</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="19">
         <f t="shared" si="25"/>
         <v>1.3734731730023104</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <f t="shared" ref="D65:D67" si="26">D58</f>
         <v>171</v>
       </c>
@@ -2958,15 +3673,15 @@
         <f t="shared" si="24"/>
         <v>Div2</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <f t="shared" ref="B66:C66" si="29">EXP(B59)</f>
         <v>105.14978609983436</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="19">
         <f t="shared" si="29"/>
         <v>1.3985726036525781</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <f t="shared" si="26"/>
         <v>159</v>
       </c>
@@ -3000,15 +3715,15 @@
         <f t="shared" si="24"/>
         <v>DivNA</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <f t="shared" ref="B67:C67" si="31">EXP(B60)</f>
         <v>104.26362890078688</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="19">
         <f t="shared" si="31"/>
         <v>1.4186301080747177</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <f t="shared" si="26"/>
         <v>897</v>
       </c>
@@ -3041,7 +3756,7 @@
       <c r="A68"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3209,7 +3924,7 @@
       <c r="A75"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3377,7 +4092,7 @@
       <c r="A82"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3545,7 +4260,7 @@
       <c r="A89"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -3593,7 +4308,7 @@
         <f>EXP(B85)</f>
         <v>29.090530591230866</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="19">
         <f t="shared" ref="B92:C95" si="33">EXP(C85)</f>
         <v>1.2521101135630144</v>
       </c>
@@ -3635,7 +4350,7 @@
         <f t="shared" si="33"/>
         <v>28.317480098268305</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <f t="shared" si="33"/>
         <v>1.2472995189681555</v>
       </c>
@@ -3677,7 +4392,7 @@
         <f t="shared" si="33"/>
         <v>27.124210717315034</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="19">
         <f t="shared" si="33"/>
         <v>1.2457587973276956</v>
       </c>
@@ -3719,7 +4434,7 @@
         <f t="shared" si="33"/>
         <v>29.089014161174209</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <f t="shared" si="33"/>
         <v>1.2632764033176309</v>
       </c>
@@ -3800,25 +4515,25 @@
       <c r="J99" t="s">
         <v>14</v>
       </c>
-      <c r="T99" s="22" t="s">
+      <c r="T99" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="U99" s="22" t="s">
+      <c r="U99" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="V99" s="22" t="s">
+      <c r="V99" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="W99" s="22" t="s">
+      <c r="W99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X99" s="22" t="s">
+      <c r="X99" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Y99" s="22" t="s">
+      <c r="Y99" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Z99" s="22" t="s">
+      <c r="Z99" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3826,10 +4541,10 @@
       <c r="A100" t="s">
         <v>29</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="11">
         <v>1935.97521655438</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="11">
         <v>722.48086089127003</v>
       </c>
       <c r="D100">
@@ -3853,25 +4568,25 @@
       <c r="J100" t="s">
         <v>42</v>
       </c>
-      <c r="T100" s="22" t="s">
+      <c r="T100" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="U100" s="22">
+      <c r="U100" s="21">
         <v>2078</v>
       </c>
-      <c r="V100" s="23">
+      <c r="V100" s="22">
         <v>1935.97521655438</v>
       </c>
-      <c r="W100" s="22" t="s">
+      <c r="W100" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="X100" s="23">
+      <c r="X100" s="22">
         <v>722.48086089127003</v>
       </c>
-      <c r="Y100" s="23">
+      <c r="Y100" s="22">
         <v>604</v>
       </c>
-      <c r="Z100" s="23">
+      <c r="Z100" s="22">
         <v>5104.5</v>
       </c>
     </row>
@@ -3879,10 +4594,10 @@
       <c r="A101" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="11">
         <v>2008.1822429906499</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="11">
         <v>714.45038441915597</v>
       </c>
       <c r="D101">
@@ -3906,25 +4621,25 @@
       <c r="J101" t="s">
         <v>16</v>
       </c>
-      <c r="T101" s="22" t="s">
+      <c r="T101" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="U101" s="22">
+      <c r="U101" s="21">
         <v>1284</v>
       </c>
-      <c r="V101" s="23">
+      <c r="V101" s="22">
         <v>2008.1822429906499</v>
       </c>
-      <c r="W101" s="22" t="s">
+      <c r="W101" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="X101" s="23">
+      <c r="X101" s="22">
         <v>714.45038441915597</v>
       </c>
-      <c r="Y101" s="23">
+      <c r="Y101" s="22">
         <v>604.5</v>
       </c>
-      <c r="Z101" s="23">
+      <c r="Z101" s="22">
         <v>5136</v>
       </c>
     </row>
@@ -3932,10 +4647,10 @@
       <c r="A102" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="11">
         <v>2098.5174563590999</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="11">
         <v>678.08174263470198</v>
       </c>
       <c r="D102">
@@ -3959,25 +4674,25 @@
       <c r="J102" t="s">
         <v>27</v>
       </c>
-      <c r="T102" s="22" t="s">
+      <c r="T102" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="U102" s="22">
+      <c r="U102" s="21">
         <v>401</v>
       </c>
-      <c r="V102" s="23">
+      <c r="V102" s="22">
         <v>2098.5174563590999</v>
       </c>
-      <c r="W102" s="22" t="s">
+      <c r="W102" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="X102" s="23">
+      <c r="X102" s="22">
         <v>678.08174263470198</v>
       </c>
-      <c r="Y102" s="23">
+      <c r="Y102" s="22">
         <v>700.5</v>
       </c>
-      <c r="Z102" s="23">
+      <c r="Z102" s="22">
         <v>4776.5</v>
       </c>
     </row>
@@ -3985,10 +4700,10 @@
       <c r="A103" t="s">
         <v>28</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="11">
         <v>2189.6574999999998</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="11">
         <v>733.11697579188296</v>
       </c>
       <c r="D103">
@@ -4012,25 +4727,25 @@
       <c r="J103" t="s">
         <v>15</v>
       </c>
-      <c r="T103" s="22" t="s">
+      <c r="T103" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U103" s="22">
+      <c r="U103" s="21">
         <v>400</v>
       </c>
-      <c r="V103" s="23">
+      <c r="V103" s="22">
         <v>2189.6574999999998</v>
       </c>
-      <c r="W103" s="22" t="s">
+      <c r="W103" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="X103" s="23">
+      <c r="X103" s="22">
         <v>733.11697579188296</v>
       </c>
-      <c r="Y103" s="23">
+      <c r="Y103" s="22">
         <v>921</v>
       </c>
-      <c r="Z103" s="23">
+      <c r="Z103" s="22">
         <v>4724</v>
       </c>
     </row>
@@ -4044,8 +4759,8 @@
       <c r="A105" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M105" s="30" t="s">
-        <v>65</v>
+      <c r="M105" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
@@ -4079,15 +4794,15 @@
       <c r="J106" t="s">
         <v>14</v>
       </c>
-      <c r="M106" s="30" t="s">
-        <v>66</v>
+      <c r="M106" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="11">
         <v>1933.9994425863999</v>
       </c>
       <c r="C107">
@@ -4114,15 +4829,15 @@
       <c r="J107" t="s">
         <v>16</v>
       </c>
-      <c r="M107" s="30" t="s">
-        <v>67</v>
+      <c r="M107" s="29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="11">
         <v>1957.64920071048</v>
       </c>
       <c r="C108">
@@ -4152,15 +4867,15 @@
       <c r="K108" t="s">
         <v>44</v>
       </c>
-      <c r="M108" s="31" t="s">
-        <v>68</v>
+      <c r="M108" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>26</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="11">
         <v>2142.64035087719</v>
       </c>
       <c r="C109">
@@ -4190,15 +4905,15 @@
       <c r="K109" t="s">
         <v>45</v>
       </c>
-      <c r="M109" s="30" t="s">
-        <v>69</v>
+      <c r="M109" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>28</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="11">
         <v>2282.59748427673</v>
       </c>
       <c r="C110">
@@ -4225,16 +4940,16 @@
       <c r="J110" t="s">
         <v>15</v>
       </c>
-      <c r="M110" s="30" t="s">
-        <v>70</v>
+      <c r="M110" s="29" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>43</v>
       </c>
-      <c r="M111" s="30" t="s">
-        <v>71</v>
+      <c r="M111" s="29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
@@ -4253,8 +4968,8 @@
       <c r="A116"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="32" t="s">
-        <v>72</v>
+      <c r="A117" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
